--- a/src/test/groovy/Template.xlsx
+++ b/src/test/groovy/Template.xlsx
@@ -5,24 +5,24 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal project\tracker-generator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\personal project\tracker-generator\src\test\groovy\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="TeamList" sheetId="21" r:id="rId1"/>
     <sheet name="Template" sheetId="20" r:id="rId2"/>
     <sheet name="Marylene" sheetId="10" r:id="rId3"/>
     <sheet name="Augustin" sheetId="11" r:id="rId4"/>
-    <sheet name="Jason " sheetId="19" r:id="rId5"/>
+    <sheet name="Jason" sheetId="19" r:id="rId5"/>
     <sheet name="Luc" sheetId="13" r:id="rId6"/>
     <sheet name="Maxime" sheetId="16" r:id="rId7"/>
     <sheet name="Gabriel" sheetId="15" r:id="rId8"/>
     <sheet name="Jerome" sheetId="17" r:id="rId9"/>
-    <sheet name="TOTAL" sheetId="18" r:id="rId10"/>
-    <sheet name="Cassandra" sheetId="14" r:id="rId11"/>
+    <sheet name="Cassandra" sheetId="14" r:id="rId10"/>
+    <sheet name="TOTAL" sheetId="18" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="40">
   <si>
     <t>Activé</t>
   </si>
@@ -164,43 +164,7 @@
     <t>EQ79421</t>
   </si>
   <si>
-    <t>BJP5R29R</t>
-  </si>
-  <si>
-    <t>BJP87WTD</t>
-  </si>
-  <si>
-    <t>BJPB557N</t>
-  </si>
-  <si>
-    <t>BJPB2C9P</t>
-  </si>
-  <si>
-    <t>BJP9ZP4Z</t>
-  </si>
-  <si>
-    <t>BJP9Q7Q2</t>
-  </si>
-  <si>
-    <t>BJPMHGQJ</t>
-  </si>
-  <si>
-    <t>BJPVCNBD</t>
-  </si>
-  <si>
-    <t>BJPZ3BC9</t>
-  </si>
-  <si>
-    <t>BJPWTJTL</t>
-  </si>
-  <si>
-    <t>BJQ4JGZP</t>
-  </si>
-  <si>
-    <t>BJQBDSDW</t>
-  </si>
-  <si>
-    <t>BJQBC7BM</t>
+    <t>EQ79401</t>
   </si>
 </sst>
 </file>
@@ -440,6 +404,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -452,10 +420,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -791,7 +755,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="A1:XFD1048576"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -849,7 +813,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
@@ -880,6 +844,144 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O48" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F6:J14"/>
   <sheetViews>
@@ -926,11 +1028,11 @@
         <v>16</v>
       </c>
       <c r="G10" s="12" t="e">
-        <f>SUM(Marylene!#REF!,Augustin!#REF!,'Jason '!#REF!,Luc!#REF!,Cassandra!#REF!,Gabriel!#REF!,Maxime!#REF!,Jerome!#REF!)</f>
+        <f>SUM(Marylene!#REF!,Augustin!#REF!,Jason!#REF!,Luc!#REF!,Cassandra!#REF!,Gabriel!#REF!,Maxime!#REF!,Jerome!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="H10" s="12" t="e">
-        <f>SUM(Marylene!#REF!,Augustin!#REF!,'Jason '!#REF!,Luc!#REF!,Cassandra!#REF!,Gabriel!#REF!,Maxime!#REF!,Jerome!#REF!)</f>
+        <f>SUM(Marylene!#REF!,Augustin!#REF!,Jason!#REF!,Luc!#REF!,Cassandra!#REF!,Gabriel!#REF!,Maxime!#REF!,Jerome!#REF!)</f>
         <v>#REF!</v>
       </c>
       <c r="I10" s="11"/>
@@ -958,136 +1060,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="24"/>
-      <c r="H2" s="25" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="26"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="21" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="J5" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L5" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M5" s="22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1097,28 +1069,20 @@
   <dimension ref="A2:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="18"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
     </row>
     <row r="5" spans="1:14" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1209,30 +1173,30 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="A6" sqref="A6:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1249,77 +1213,77 @@
         <v>3</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1340,30 +1304,38 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="E26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1380,77 +1352,77 @@
         <v>3</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1468,79 +1440,137 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:M16"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:M16"/>
+    <sheetView zoomScale="67" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I55" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D13" s="15" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="16" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="17" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K13" s="18"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1552,30 +1582,38 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="J88" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1592,77 +1630,77 @@
         <v>3</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1682,30 +1720,38 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="O40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="19"/>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
@@ -1722,77 +1768,77 @@
         <v>3</v>
       </c>
       <c r="K2" s="26"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="21" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="21" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="21" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1809,198 +1855,129 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M16"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="O44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2016,96 +1993,129 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:M5"/>
+      <selection activeCell="N44" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
     <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D2" s="15" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="23"/>
+      <c r="F2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="24"/>
+      <c r="H2" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="18" t="s">
+      <c r="I2" s="25"/>
+      <c r="J2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="18"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L5" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="18" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
